--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2372430.685875887</v>
+        <v>2476610.32032696</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>33.36619356526521</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>136.3896895755425</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682479</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>7.043238784030143</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>112.4066144100477</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>63.25786276724464</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>128.877185299644</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>113.0182043032054</v>
       </c>
       <c r="D7" t="n">
-        <v>60.43691176767025</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>328.9725371167036</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>200.8055935429076</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1350,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>17.41027617551688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>51.56887637424928</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>170.7002125187786</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>174.7683347992597</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8253826161909164</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0.4774956074566125</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>105.11626575513</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189058</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>82.52140782073282</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>73.44478684180677</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.5361117049718</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.7122866515529</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>174.7683347992606</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>27.77749086859478</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552939</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8253826161909164</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>126.4418041083155</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.208022973022</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>515.2877924106872</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>100.2153422556837</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>100.2153422556837</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1934.208022973022</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927795</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158137</v>
@@ -4419,40 +4421,40 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.8965081646998</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C4" t="n">
-        <v>369.9603252367929</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D4" t="n">
-        <v>219.8436858244571</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4504,7 +4506,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>1723.922056088397</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242374</v>
+        <v>1434.819189214041</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036487</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036487</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="X4" t="n">
-        <v>941.3375521384696</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.5449729949395</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4580,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.078555102614</v>
+        <v>1808.800296392466</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>441.479525463516</v>
+        <v>889.9473523424602</v>
       </c>
       <c r="C7" t="n">
-        <v>441.479525463516</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4753,22 +4755,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1361.012987209661</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>1071.5958171727</v>
       </c>
       <c r="X7" t="n">
-        <v>843.9205694372858</v>
+        <v>1071.5958171727</v>
       </c>
       <c r="Y7" t="n">
-        <v>623.1279902937557</v>
+        <v>1071.5958171727</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2291.674678112795</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C8" t="n">
-        <v>1922.712161172383</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>1564.446462565633</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2806.503472648865</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176917</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y8" t="n">
-        <v>2678.274518176917</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.9911633238872</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1398.838928232635</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1109.421758195675</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>881.4322072976571</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.639628154127</v>
+        <v>310.7277411117484</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2207.492922742988</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1987.891457765928</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1698.816231110126</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>926.7250219692613</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5297,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.955258982919</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>889.0190760550122</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>738.9024366426764</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>590.9893430602833</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.385853854706</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.396302956689</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.603723813159</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,55 +5986,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6148,49 +6150,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6233,43 +6235,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>3260.450525729773</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>3091.514342801866</v>
       </c>
       <c r="D28" t="n">
-        <v>633.9926444679666</v>
+        <v>2941.397703389531</v>
       </c>
       <c r="E28" t="n">
-        <v>486.0795508855734</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>4033.692364870553</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>3744.275194833593</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>3516.285643935576</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>3442.098990560013</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6643,28 +6645,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X31" t="n">
-        <v>3455.19996817779</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y31" t="n">
-        <v>3342.537229081859</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="M33" t="n">
-        <v>3658.217393399322</v>
+        <v>691.195150674524</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2897.617548589219</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>2728.681365661313</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495167</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,19 +7256,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7436,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>94.65038286230612</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7640,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7664,22 +7666,22 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7691,7 +7693,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7846,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.278985858334735e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.32607348286601</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.3544845744807</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>62.89964020219843</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>145.139866510288</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>107.048541647123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.11969353038442</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>111.4161395899835</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.4693302300331</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.5956654067394</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>99.26785128072164</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799166.8139980022</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448194</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448192</v>
-      </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597551</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.7767646315624e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818161</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.8989181816</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26436,7 +26438,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26445,7 +26447,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26457,7 +26459,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26497,7 +26499,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-892555.2135623484</v>
+        <v>-892555.213562348</v>
       </c>
       <c r="C6" t="n">
-        <v>436189.5321652447</v>
+        <v>436189.5321652444</v>
       </c>
       <c r="D6" t="n">
-        <v>436189.5321652441</v>
+        <v>436189.532165245</v>
       </c>
       <c r="E6" t="n">
-        <v>186006.7589816623</v>
+        <v>186006.7589816621</v>
       </c>
       <c r="F6" t="n">
         <v>511419.2207890174</v>
       </c>
       <c r="G6" t="n">
-        <v>511419.2207890171</v>
+        <v>511419.2207890174</v>
       </c>
       <c r="H6" t="n">
-        <v>511419.2207890173</v>
+        <v>511419.2207890172</v>
       </c>
       <c r="I6" t="n">
         <v>511419.2207890174</v>
@@ -26546,22 +26548,22 @@
         <v>293888.0183917398</v>
       </c>
       <c r="K6" t="n">
+        <v>511419.2207890172</v>
+      </c>
+      <c r="L6" t="n">
+        <v>511419.2207890168</v>
+      </c>
+      <c r="M6" t="n">
+        <v>426364.1928535059</v>
+      </c>
+      <c r="N6" t="n">
+        <v>511419.2207890174</v>
+      </c>
+      <c r="O6" t="n">
+        <v>511419.2207890177</v>
+      </c>
+      <c r="P6" t="n">
         <v>511419.2207890173</v>
-      </c>
-      <c r="L6" t="n">
-        <v>511419.2207890174</v>
-      </c>
-      <c r="M6" t="n">
-        <v>426364.1928535057</v>
-      </c>
-      <c r="N6" t="n">
-        <v>511419.2207890172</v>
-      </c>
-      <c r="O6" t="n">
-        <v>511419.2207890175</v>
-      </c>
-      <c r="P6" t="n">
-        <v>511419.2207890175</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022931</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>8.210736207660709</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>249.8482490805111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.390723862539</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>107.1423348661215</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>306.4732379112244</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>257.3607533564095</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>54.22861679542247</v>
       </c>
       <c r="D7" t="n">
-        <v>88.1785612505421</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>52.95783295555816</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>126.9466649272273</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>234.7273671483111</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>167.0157769778455</v>
       </c>
     </row>
     <row r="11">
@@ -29806,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31039,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31051,31 +31053,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31124,43 +31126,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,19 +31205,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31230,13 +31232,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31838,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>169.268784767334</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601599</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>189.0011860882993</v>
+        <v>754.0002396832319</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33976,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34451,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34701,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>27.13475084531573</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802858</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>173.4910455250332</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>57.65947400496596</v>
+        <v>622.6585275998987</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>481.5356082478342</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2476610.32032696</v>
+        <v>2472597.710312966</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>191.2490250244987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33.36619356526521</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.4432552703001</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -867,10 +867,10 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4066144100477</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>307.6318019940295</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292587</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>128.877185299644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>113.0182043032054</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380546</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>126.5388824951711</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>200.8055935429076</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.56887637424928</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176115</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>113.9549918517058</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>65.99480013030511</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>174.7683347992597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8253826161909164</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4774956074566125</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.44478684180677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>174.7683347992606</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>20.92847288552939</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0854776630161</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>126.4418041083155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140706</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="C2" t="n">
-        <v>926.2736972002947</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>926.2736972002947</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>926.2736972002947</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>515.2877924106872</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>100.2153422556837</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>100.2153422556837</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>920.3423867623645</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>920.3423867623645</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>770.2257473500288</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>622.3126537676357</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>475.4227062697253</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>307.7198696444442</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1723.922056088397</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1434.819189214041</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1180.134701008154</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>1180.134701008154</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X4" t="n">
-        <v>1180.134701008154</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.3421218646239</v>
+        <v>1101.990851592604</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1859.132475219476</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1490.169958279065</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1131.904259672314</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1131.904259672314</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927146</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267231</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.03470992366</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653546</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392466</v>
+        <v>2635.87164725941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1678.62132134232</v>
+        <v>2245.732315283598</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>889.9473523424602</v>
+        <v>463.6594280995023</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>294.7232451715954</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>144.6066057592597</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218345</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415548</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415548</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.012987209661</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.5958171727</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1071.5958171727</v>
+        <v>866.1004720732722</v>
       </c>
       <c r="Y7" t="n">
-        <v>1071.5958171727</v>
+        <v>645.307892929742</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1303.529887077737</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>651.3985183731436</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>236.3260682181401</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2806.503472648865</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2453.73481737875</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2080.269059117671</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y8" t="n">
-        <v>1690.129727141859</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7277411117484</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.7277411117484</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.811327457202</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5433,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.301669307225</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>94.65038286230612</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.149479058937</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3260.450525729773</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>3091.514342801866</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2941.397703389531</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807138</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053499</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.37685307644</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>4288.37685307644</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>4033.692364870553</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.275194833593</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3516.285643935576</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3442.098990560013</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6448,52 +6448,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4334.712221995193</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192611</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832664</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855605</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1983.7822433412</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,43 +6931,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876697</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597628</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474271</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474271</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>114.9565346495167</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258107</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602305</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396418</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359457</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614396</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179095</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7839,13 +7839,13 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
         <v>974.1018203925706</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>-1.174150100407118e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>67.07129414993878</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>115.0314858713395</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.3544845744807</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.139866510288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>111.4161395899835</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>144.5956654067394</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>73.62417772602106</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>99.26785128072164</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.7767646315624e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818163</v>
       </c>
       <c r="C4" t="n">
         <v>92183.8989181816</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26444,10 +26444,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="L4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12996.86414683039</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26499,7 +26499,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-892555.213562348</v>
+        <v>-892555.2135623484</v>
       </c>
       <c r="C6" t="n">
         <v>436189.5321652444</v>
       </c>
       <c r="D6" t="n">
-        <v>436189.532165245</v>
+        <v>436189.5321652448</v>
       </c>
       <c r="E6" t="n">
-        <v>186006.7589816621</v>
+        <v>185659.3797273053</v>
       </c>
       <c r="F6" t="n">
-        <v>511419.2207890174</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="G6" t="n">
-        <v>511419.2207890174</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="H6" t="n">
-        <v>511419.2207890172</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="I6" t="n">
-        <v>511419.2207890174</v>
+        <v>511071.8415346601</v>
       </c>
       <c r="J6" t="n">
-        <v>293888.0183917398</v>
+        <v>293540.6391373824</v>
       </c>
       <c r="K6" t="n">
-        <v>511419.2207890172</v>
+        <v>511071.8415346602</v>
       </c>
       <c r="L6" t="n">
-        <v>511419.2207890168</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="M6" t="n">
-        <v>426364.1928535059</v>
+        <v>426016.8135991486</v>
       </c>
       <c r="N6" t="n">
-        <v>511419.2207890174</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="O6" t="n">
-        <v>511419.2207890177</v>
+        <v>511071.8415346603</v>
       </c>
       <c r="P6" t="n">
-        <v>511419.2207890173</v>
+        <v>511071.8415346603</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>174.0238667465088</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>8.210736207660709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>2.311759644020725</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>107.1423348661215</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>99.24424374768194</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>257.3607533564095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>54.22861679542247</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276371</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>168.0688818921494</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>126.9466649272273</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>167.0157769778455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31840,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>169.268784767334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601599</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832319</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>254.8360547723487</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531573</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193524</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802858</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875399</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2472597.710312966</v>
+        <v>2474358.240615751</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>191.2490250244987</v>
+        <v>74.32262784155945</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>142.4432552703001</v>
+        <v>0.9276038083031439</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.6318019940295</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>109.6870817625072</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.31354443380546</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.72599233723623</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>126.5388824951711</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>164.6686649558538</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>113.9549918517058</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>65.99480013030511</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>131.7584887394948</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>27.02919805176115</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>152.0854776630161</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495405</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066533</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796419</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535339</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559527</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.3423867623645</v>
+        <v>946.3334672034058</v>
       </c>
       <c r="C4" t="n">
-        <v>920.3423867623645</v>
+        <v>777.3972842754989</v>
       </c>
       <c r="D4" t="n">
-        <v>770.2257473500288</v>
+        <v>627.2806448631632</v>
       </c>
       <c r="E4" t="n">
-        <v>622.3126537676357</v>
+        <v>479.36755128077</v>
       </c>
       <c r="F4" t="n">
-        <v>475.4227062697253</v>
+        <v>332.4776037828597</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7198696444442</v>
+        <v>164.7747671575786</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.990851592604</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.990851592604</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.990851592604</v>
+        <v>1127.981932033646</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219476</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.169958279065</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1131.904259672314</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>1131.904259672314</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.87164725941</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283598</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4643,31 +4643,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995023</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>294.7232451715954</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592597</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218345</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1911.40970734381</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1719.723823170636</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1719.723823170636</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1430.620956296279</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732722</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.307892929742</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162751</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>651.3985183731436</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>236.3260682181401</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3048.983168332374</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3048.983168332374</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2717.920280988803</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2365.151625718689</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>1991.685867457609</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>1601.546535481797</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,22 +5053,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.811327457202</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2380.301669307225</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.700204330166</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.624977674364</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>368.61787677092</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6171,22 +6171,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
         <v>974.1018203925706</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6448,25 +6448,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,22 +6478,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7180,16 +7180,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.278985858334735e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.174150100407118e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393071</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>67.07129414993878</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.0314858713395</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>33.76564955277408</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>73.62417772602106</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597545</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26368,7 +26368,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818163</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181816</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26444,13 +26444,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-892555.2135623484</v>
       </c>
       <c r="C6" t="n">
-        <v>436189.5321652444</v>
+        <v>436189.5321652448</v>
       </c>
       <c r="D6" t="n">
-        <v>436189.5321652448</v>
+        <v>436189.5321652445</v>
       </c>
       <c r="E6" t="n">
-        <v>185659.3797273053</v>
+        <v>185972.0210562265</v>
       </c>
       <c r="F6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="G6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="H6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635815</v>
       </c>
       <c r="I6" t="n">
-        <v>511071.8415346601</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="J6" t="n">
-        <v>293540.6391373824</v>
+        <v>293853.2804663038</v>
       </c>
       <c r="K6" t="n">
-        <v>511071.8415346602</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="L6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="M6" t="n">
-        <v>426016.8135991486</v>
+        <v>426329.4549280697</v>
       </c>
       <c r="N6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="O6" t="n">
-        <v>511071.8415346603</v>
+        <v>511384.4828635815</v>
       </c>
       <c r="P6" t="n">
-        <v>511071.8415346603</v>
+        <v>511384.4828635815</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>174.0238667465088</v>
+        <v>290.9502639294481</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.311759644020725</v>
+        <v>143.8274111060176</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.24424374768194</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>218.0651767076277</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12041821276371</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>73.20616033281109</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>168.0688818921494</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>39.24930518376632</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.91971315289126e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32727,7 +32727,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
